--- a/outs/Photos_out.xlsx
+++ b/outs/Photos_out.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,248 +434,246 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>creator</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>creator</t>
+          <t>source</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>source</t>
+          <t>publisher</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>publisher</t>
+          <t>date</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>contributor</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>contributor</t>
+          <t>language</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>rights</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>rights</t>
+          <t>relation</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>relation</t>
+          <t>format</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>format</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>identifier</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>identifier</t>
+          <t>coverage</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>coverage</t>
+          <t>zotero_genre</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>zotero_genre</t>
+          <t>zotero_distributor</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>zotero_distributor</t>
+          <t>zotero_director</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>zotero_director</t>
+          <t>z_performer</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>z_performer</t>
+          <t>zotero_episode_number</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>zotero_episode_number</t>
+          <t>zotero_language</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>zotero_language</t>
+          <t>zotero_network</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>zotero_network</t>
+          <t>zotero_audio_recording_format</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>zotero_audio_recording_format</t>
+          <t>zotero_label</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>zotero_label</t>
+          <t>zotero_running_time</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>zotero_running_time</t>
+          <t>zotero_num_pages</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>zotero_num_pages</t>
+          <t>zotero_place</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>zotero_place</t>
+          <t>zotero_publisher</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>zotero_publisher</t>
+          <t>zotero_issn</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>zotero_issn</t>
+          <t>zotero_isbn</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>zotero_isbn</t>
+          <t>zotero_issue</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>zotero_issue</t>
+          <t>zotero_publication_title</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>zotero_publication_title</t>
+          <t>z_url</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>z_url</t>
+          <t>zotero_volume</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>zotero_volume</t>
+          <t>zotero_short_title</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>zotero_short_title</t>
+          <t>z_ref</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>z_ref</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>files</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>files</t>
+          <t>tags</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>tags</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>collection</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1660</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Edwards Manufacturing Company, 1984</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Edwards Manufacturing Company, 1984</t>
+          <t>Five photographs of the former Edwards Manufacturing Company cotton mill complex at the base of Sand Hill on the north side of Augusta, Maine. St. Augustine Roman Catholic church visible in the background of four of the images. Photographs taken during research for a thesis in anthropology entitled, "Economic Factors in the Persistence of French-Canadian Identity in New England," by Julia Schulz (M.A., McGill University, 1985). The mill complex was largely vacated in the 1980s and destroyed by fire in the winter of 1989.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Five photographs of the former Edwards Manufacturing Company cotton mill complex at the base of Sand Hill on the north side of Augusta, Maine. St. Augustine Roman Catholic church visible in the background of four of the images. Photographs taken during research for a thesis in anthropology entitled, "Economic Factors in the Persistence of French-Canadian Identity in New England," by Julia Schulz (M.A., McGill University, 1985). The mill complex was largely vacated in the 1980s and destroyed by fire in the winter of 1989.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>Schulz, Julia (photographs)</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1984 October</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Featured here with permission of the photographer</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>&lt;a href="http://www.worldcat.org/oclc/61546426"&gt;61546426&lt;/a&gt;</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/61546426"&gt;61546426&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
           <t>October 1984; Augusta, Maine</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
@@ -692,27 +690,26 @@
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>Economic Factors in the Persistence of French-Canadian Identity in New England by Julia Schulz</t>
-        </is>
-      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://francolib.francoamerican.org/items/show/227"&gt;Economic Factors in the Persistence of French-Canadian Identity in New England&lt;/a&gt; by &lt;a href="http://francolib.francoamerican.org/items/browse?search=schulz&amp;amp;submit_search=Search"&gt;Julia Schulz&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/8bca81ef705eee8a557014da8c2285f9.jpg;https://francolibrary.com/archive/files/0444aa1718fbc2e6b20b341a6beaecf5.jpg;https://francolibrary.com/archive/files/7df2fa3cb23ba5df5079a3f2dca045cf.jpg;https://francolibrary.com/archive/files/9ad20dca0a364c6e4cd79e60049a2e7a.jpg;https://francolibrary.com/archive/files/a380c452bf4debef96c14dc817e3e52a.jpg</t>
+        </is>
+      </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/8bca81ef705eee8a557014da8c2285f9.jpg;https://francolibrary.com/archive/files/0444aa1718fbc2e6b20b341a6beaecf5.jpg;https://francolibrary.com/archive/files/7df2fa3cb23ba5df5079a3f2dca045cf.jpg;https://francolibrary.com/archive/files/9ad20dca0a364c6e4cd79e60049a2e7a.jpg;https://francolibrary.com/archive/files/a380c452bf4debef96c14dc817e3e52a.jpg</t>
+          <t>Augusta ME;Kennebec River Valley;Mills and Mill Work;Sand Hill ME</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
-        <is>
-          <t>Augusta ME;Kennebec River Valley;Mills and Mill Work;Sand Hill ME</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
         <is>
           <t>Photos</t>
         </is>
